--- a/biology/Médecine/Atomoxétine/Atomoxétine.xlsx
+++ b/biology/Médecine/Atomoxétine/Atomoxétine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atomox%C3%A9tine</t>
+          <t>Atomoxétine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'atomoxétine est un médicament utilisé pour traiter le trouble du déficit de l'attention avec ou sans hyperactivité.
-Ce médicament est retiré de la vente en France depuis le 13 juillet 2012[2]. Il avait reçu une autorisation de mise sur le marché en France le 28 juin 2010[3] et est sur le marché aux États-Unis depuis 2002, au Royaume-Uni depuis 2004 et dans les autres pays européens à l'exception de la France depuis 2004 à 2005[3].
+Ce médicament est retiré de la vente en France depuis le 13 juillet 2012. Il avait reçu une autorisation de mise sur le marché en France le 28 juin 2010 et est sur le marché aux États-Unis depuis 2002, au Royaume-Uni depuis 2004 et dans les autres pays européens à l'exception de la France depuis 2004 à 2005.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atomox%C3%A9tine</t>
+          <t>Atomoxétine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Spécificité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'atomoxétine est différente des autres médicaments utilisés pour traiter le TDAH car il n'est pas un psychostimulant, mais bien un inhibiteur hautement sélectif des transporteurs pré-synaptiques de la noradrénaline.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atomox%C3%A9tine</t>
+          <t>Atomoxétine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le médicament est initialement manufacturé sous le nom de Strattera et produit par la compagnie Eli Lilly and Company. Il est disponible sous forme de gélules sous différentes doses :
 10 mg :chaque gélule a un corps blanc opaque gravé Lilly au-dessus de 3227 et contient 10 mg d'atomoxétine. Ingrédients non médicinaux : amidon prégélatinisé, diméthicone, gélatine, laurylsulfate de sodium et un ou plus des éléments ci-après : AD et C bleu no 2, dioxyde de titane et oxyde de fer jaune synthétique.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atomox%C3%A9tine</t>
+          <t>Atomoxétine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce médicament peut avoir certains effets secondaires tels que :
-une augmentation de la fréquence cardiaque et de la pression artérielle[4] (cet effet secondaire très fréquent fait l'objet de contre-indications et de précautions[4]) ;
+une augmentation de la fréquence cardiaque et de la pression artérielle (cet effet secondaire très fréquent fait l'objet de contre-indications et de précautions) ;
 de la fatigue ;
 de l'irritabilité ou des sautes d'humeur ;
 des brûlures d'estomac, des gaz, une perte de l'appétit, de la nausée, diarrhée et/ou des vomissements spontanés ;
@@ -608,7 +626,7 @@
 des hallucinations (par exemple l'illusion d'entendre, de voir ou de sentir quelque chose qui n'existe pas réellement) ;
 des symptômes d'une réaction allergique grave (par exemple de l'urticaire, une boursouflure du visage et une enflure de la gorge, une difficulté respiratoire) ;
 des pensées suicidaires ou des indices d'un comportement suicidaire.
-Ainsi La revue Prescrire juge en 2009 que ce médicament n'apporte rien de nouveau et que les effets secondaires sont, comme pour le méthylphénidate, non négligeables[5].
+Ainsi La revue Prescrire juge en 2009 que ce médicament n'apporte rien de nouveau et que les effets secondaires sont, comme pour le méthylphénidate, non négligeables.
 </t>
         </is>
       </c>
